--- a/conditions.xlsx
+++ b/conditions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eFabiani\Desktop\Test utilisateur Ngager\task psychopy\alarme\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eFabiani\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24FBB67D-569F-4362-B581-656976F2635B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B00EE9-6283-48CA-8221-AFCF6348E335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="10">
   <si>
     <t>target</t>
   </si>
@@ -385,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -437,7 +437,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="2">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -468,7 +468,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="2">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -497,7 +497,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="2">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
@@ -560,7 +560,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="2">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
@@ -588,7 +588,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
@@ -620,7 +620,7 @@
         <v>5</v>
       </c>
       <c r="C15" s="2">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D15" s="2">
         <v>0</v>
@@ -649,7 +649,7 @@
         <v>5</v>
       </c>
       <c r="C17" s="2">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D17" s="2">
         <v>0</v>
@@ -678,7 +678,7 @@
         <v>5</v>
       </c>
       <c r="C19" s="2">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D19" s="2">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>5</v>
       </c>
       <c r="C21" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D21" s="2">
         <v>0</v>
@@ -741,7 +741,7 @@
         <v>5</v>
       </c>
       <c r="C23" s="2">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D23" s="2">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>5</v>
       </c>
       <c r="C26" s="2">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>5</v>
       </c>
       <c r="C28" s="2">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="D28" s="2">
         <v>0</v>
@@ -845,7 +845,7 @@
         <v>5</v>
       </c>
       <c r="C30" s="2">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D30" s="2">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>5</v>
       </c>
       <c r="C32" s="2">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="D32" s="2">
         <v>0</v>
@@ -912,6 +912,249 @@
       <c r="D34">
         <v>0</v>
       </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="2">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="2">
+        <v>3</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="2">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="2">
+        <v>10</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0</v>
+      </c>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="2">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="2">
+        <v>3</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="2">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="2">
+        <v>10</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0</v>
+      </c>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="2">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="2">
+        <v>3</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="2">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="2">
+        <v>10</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0</v>
+      </c>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="2">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="2">
+        <v>3</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="2">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="2">
+        <v>10</v>
+      </c>
+      <c r="D42" s="2">
+        <v>0</v>
+      </c>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" s="2">
+        <v>41</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="2">
+        <v>3</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0</v>
+      </c>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="2">
+        <v>42</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="2">
+        <v>10</v>
+      </c>
+      <c r="D44" s="2">
+        <v>0</v>
+      </c>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="2">
+        <v>43</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="2">
+        <v>3</v>
+      </c>
+      <c r="D45" s="2">
+        <v>1</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" s="2">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="2">
+        <v>10</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0</v>
+      </c>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" s="2">
+        <v>45</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="2">
+        <v>3</v>
+      </c>
+      <c r="D47" s="2">
+        <v>0</v>
+      </c>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" s="2">
+        <v>46</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="2">
+        <v>10</v>
+      </c>
+      <c r="D48" s="2">
+        <v>0</v>
+      </c>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="1"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:E33">

--- a/conditions.xlsx
+++ b/conditions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eFabiani\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eFabiani\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B00EE9-6283-48CA-8221-AFCF6348E335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF4BC23-4C38-48CE-8139-5C493E84593B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="9">
   <si>
     <t>target</t>
   </si>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>thisduration</t>
-  </si>
-  <si>
-    <t>n</t>
   </si>
   <si>
     <t>green.png</t>
@@ -388,7 +385,7 @@
   <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -400,7 +397,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
@@ -420,10 +417,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
@@ -434,7 +431,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="2">
         <v>10</v>
@@ -448,7 +445,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="2">
         <v>3</v>
@@ -456,8 +453,8 @@
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
-        <v>4</v>
+      <c r="E4">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -465,7 +462,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2">
         <v>10</v>
@@ -479,7 +476,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="2">
         <v>3</v>
@@ -494,7 +491,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="2">
         <v>10</v>
@@ -509,7 +506,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="2">
         <v>3</v>
@@ -517,8 +514,8 @@
       <c r="D8" s="2">
         <v>1</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>4</v>
+      <c r="E8" s="1">
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -526,7 +523,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="2">
         <v>10</v>
@@ -540,7 +537,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="2">
         <v>3</v>
@@ -548,8 +545,8 @@
       <c r="D10" s="2">
         <v>1</v>
       </c>
-      <c r="E10" t="s">
-        <v>4</v>
+      <c r="E10">
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -557,7 +554,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" s="2">
         <v>10</v>
@@ -571,7 +568,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" s="2">
         <v>3</v>
@@ -585,7 +582,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" s="2">
         <v>10</v>
@@ -600,7 +597,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" s="2">
         <v>3</v>
@@ -608,8 +605,8 @@
       <c r="D14" s="2">
         <v>1</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>4</v>
+      <c r="E14" s="1">
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -617,7 +614,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" s="2">
         <v>10</v>
@@ -632,7 +629,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" s="2">
         <v>3</v>
@@ -646,7 +643,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17" s="2">
         <v>10</v>
@@ -660,7 +657,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18" s="2">
         <v>3</v>
@@ -675,7 +672,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" s="2">
         <v>10</v>
@@ -689,7 +686,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20" s="2">
         <v>3</v>
@@ -697,8 +694,8 @@
       <c r="D20" s="2">
         <v>1</v>
       </c>
-      <c r="E20" t="s">
-        <v>4</v>
+      <c r="E20">
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
@@ -706,7 +703,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21" s="2">
         <v>10</v>
@@ -721,7 +718,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C22" s="2">
         <v>3</v>
@@ -729,8 +726,8 @@
       <c r="D22" s="2">
         <v>1</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>4</v>
+      <c r="E22" s="1">
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
@@ -738,7 +735,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C23" s="2">
         <v>10</v>
@@ -752,7 +749,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C24" s="2">
         <v>3</v>
@@ -766,7 +763,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C25" s="2">
         <v>3</v>
@@ -774,8 +771,8 @@
       <c r="D25" s="2">
         <v>1</v>
       </c>
-      <c r="E25" t="s">
-        <v>4</v>
+      <c r="E25">
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
@@ -783,7 +780,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C26" s="2">
         <v>10</v>
@@ -797,7 +794,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C27" s="2">
         <v>3</v>
@@ -812,7 +809,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C28" s="2">
         <v>10</v>
@@ -827,7 +824,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C29" s="2">
         <v>3</v>
@@ -842,7 +839,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C30" s="2">
         <v>10</v>
@@ -857,7 +854,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C31" s="2">
         <v>3</v>
@@ -865,8 +862,8 @@
       <c r="D31" s="2">
         <v>1</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>4</v>
+      <c r="E31" s="1">
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
@@ -874,7 +871,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C32" s="2">
         <v>10</v>
@@ -889,7 +886,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C33" s="2">
         <v>3</v>
@@ -904,7 +901,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C34" s="2">
         <v>10</v>
@@ -918,7 +915,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C35" s="2">
         <v>3</v>
@@ -926,8 +923,8 @@
       <c r="D35" s="2">
         <v>1</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>4</v>
+      <c r="E35" s="2">
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
@@ -935,7 +932,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C36" s="2">
         <v>10</v>
@@ -950,7 +947,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C37" s="2">
         <v>3</v>
@@ -965,7 +962,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C38" s="2">
         <v>10</v>
@@ -980,7 +977,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C39" s="2">
         <v>3</v>
@@ -988,8 +985,8 @@
       <c r="D39" s="2">
         <v>1</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>4</v>
+      <c r="E39" s="1">
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
@@ -997,7 +994,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C40" s="2">
         <v>10</v>
@@ -1012,7 +1009,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C41" s="2">
         <v>3</v>
@@ -1020,8 +1017,8 @@
       <c r="D41" s="2">
         <v>1</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>4</v>
+      <c r="E41" s="2">
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
@@ -1029,7 +1026,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C42" s="2">
         <v>10</v>
@@ -1044,7 +1041,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C43" s="2">
         <v>3</v>
@@ -1059,7 +1056,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C44" s="2">
         <v>10</v>
@@ -1074,7 +1071,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C45" s="2">
         <v>3</v>
@@ -1082,8 +1079,8 @@
       <c r="D45" s="2">
         <v>1</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>4</v>
+      <c r="E45" s="1">
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
@@ -1091,7 +1088,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C46" s="2">
         <v>10</v>
@@ -1106,7 +1103,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C47" s="2">
         <v>3</v>
@@ -1121,7 +1118,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C48" s="2">
         <v>10</v>

--- a/conditions.xlsx
+++ b/conditions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eFabiani\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF4BC23-4C38-48CE-8139-5C493E84593B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7367D0B-71F7-45EE-B6F8-C829940BD397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="10">
   <si>
     <t>target</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>0.1</t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
 </sst>
 </file>
@@ -385,7 +388,7 @@
   <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -453,8 +456,8 @@
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4">
-        <v>6</v>
+      <c r="E4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -514,8 +517,8 @@
       <c r="D8" s="2">
         <v>1</v>
       </c>
-      <c r="E8" s="1">
-        <v>6</v>
+      <c r="E8" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -545,8 +548,8 @@
       <c r="D10" s="2">
         <v>1</v>
       </c>
-      <c r="E10">
-        <v>6</v>
+      <c r="E10" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -605,8 +608,8 @@
       <c r="D14" s="2">
         <v>1</v>
       </c>
-      <c r="E14" s="1">
-        <v>6</v>
+      <c r="E14" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -694,8 +697,8 @@
       <c r="D20" s="2">
         <v>1</v>
       </c>
-      <c r="E20">
-        <v>6</v>
+      <c r="E20" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
@@ -726,8 +729,8 @@
       <c r="D22" s="2">
         <v>1</v>
       </c>
-      <c r="E22" s="1">
-        <v>6</v>
+      <c r="E22" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
@@ -771,8 +774,8 @@
       <c r="D25" s="2">
         <v>1</v>
       </c>
-      <c r="E25">
-        <v>6</v>
+      <c r="E25" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
@@ -862,8 +865,8 @@
       <c r="D31" s="2">
         <v>1</v>
       </c>
-      <c r="E31" s="1">
-        <v>6</v>
+      <c r="E31" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
@@ -923,8 +926,8 @@
       <c r="D35" s="2">
         <v>1</v>
       </c>
-      <c r="E35" s="2">
-        <v>6</v>
+      <c r="E35" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
@@ -985,8 +988,8 @@
       <c r="D39" s="2">
         <v>1</v>
       </c>
-      <c r="E39" s="1">
-        <v>6</v>
+      <c r="E39" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
@@ -1017,8 +1020,8 @@
       <c r="D41" s="2">
         <v>1</v>
       </c>
-      <c r="E41" s="2">
-        <v>6</v>
+      <c r="E41" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
@@ -1079,8 +1082,8 @@
       <c r="D45" s="2">
         <v>1</v>
       </c>
-      <c r="E45" s="1">
-        <v>6</v>
+      <c r="E45" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">

--- a/conditions.xlsx
+++ b/conditions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eFabiani\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7367D0B-71F7-45EE-B6F8-C829940BD397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5373F80-295B-42EF-99A9-FE2C2B5CFBC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="10">
   <si>
     <t>target</t>
   </si>
@@ -385,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -613,552 +613,28 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="2">
-        <v>10</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0</v>
-      </c>
+      <c r="B15" s="2"/>
+      <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="2">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="2">
-        <v>3</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" s="2">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="2">
-        <v>10</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="2">
-        <v>16</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="2">
-        <v>3</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0</v>
-      </c>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="2">
-        <v>17</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="2">
-        <v>10</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="2">
-        <v>18</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="2">
-        <v>3</v>
-      </c>
-      <c r="D20" s="2">
-        <v>1</v>
-      </c>
-      <c r="E20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="2">
-        <v>19</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="2">
-        <v>10</v>
-      </c>
-      <c r="D21" s="2">
-        <v>0</v>
-      </c>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="2">
-        <v>20</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="2">
-        <v>3</v>
-      </c>
-      <c r="D22" s="2">
-        <v>1</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="2">
-        <v>21</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="2">
-        <v>10</v>
-      </c>
-      <c r="D23" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="2">
-        <v>22</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="2">
-        <v>3</v>
-      </c>
-      <c r="D24" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="2">
-        <v>23</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="2">
-        <v>3</v>
-      </c>
-      <c r="D25" s="2">
-        <v>1</v>
-      </c>
-      <c r="E25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="2">
-        <v>24</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="2">
-        <v>10</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="2">
-        <v>25</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="2">
-        <v>3</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="2">
-        <v>26</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="2">
-        <v>10</v>
-      </c>
-      <c r="D28" s="2">
-        <v>0</v>
-      </c>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="2">
-        <v>27</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="2">
-        <v>3</v>
-      </c>
-      <c r="D29" s="2">
-        <v>0</v>
-      </c>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="2">
-        <v>28</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" s="2">
-        <v>10</v>
-      </c>
-      <c r="D30" s="2">
-        <v>0</v>
-      </c>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A31" s="2">
-        <v>29</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="2">
-        <v>3</v>
-      </c>
-      <c r="D31" s="2">
-        <v>1</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A32" s="2">
-        <v>30</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" s="2">
-        <v>10</v>
-      </c>
-      <c r="D32" s="2">
-        <v>0</v>
-      </c>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A33" s="2">
-        <v>31</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="2">
-        <v>3</v>
-      </c>
-      <c r="D33" s="2">
-        <v>0</v>
-      </c>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A34" s="2">
-        <v>32</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="2">
-        <v>10</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A35" s="2">
-        <v>33</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="2">
-        <v>3</v>
-      </c>
-      <c r="D35" s="2">
-        <v>1</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A36" s="2">
-        <v>34</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" s="2">
-        <v>10</v>
-      </c>
-      <c r="D36" s="2">
-        <v>0</v>
-      </c>
-      <c r="E36" s="2"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A37" s="2">
-        <v>35</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C37" s="2">
-        <v>3</v>
-      </c>
-      <c r="D37" s="2">
-        <v>0</v>
-      </c>
-      <c r="E37" s="1"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A38" s="2">
-        <v>36</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" s="2">
-        <v>10</v>
-      </c>
-      <c r="D38" s="2">
-        <v>0</v>
-      </c>
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A39" s="2">
-        <v>37</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="2">
-        <v>3</v>
-      </c>
-      <c r="D39" s="2">
-        <v>1</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A40" s="2">
-        <v>38</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C40" s="2">
-        <v>10</v>
-      </c>
-      <c r="D40" s="2">
-        <v>0</v>
-      </c>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A41" s="2">
-        <v>39</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="2">
-        <v>3</v>
-      </c>
-      <c r="D41" s="2">
-        <v>1</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="2">
-        <v>40</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C42" s="2">
-        <v>10</v>
-      </c>
-      <c r="D42" s="2">
-        <v>0</v>
-      </c>
-      <c r="E42" s="2"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A43" s="2">
-        <v>41</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" s="2">
-        <v>3</v>
-      </c>
-      <c r="D43" s="2">
-        <v>0</v>
-      </c>
-      <c r="E43" s="2"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A44" s="2">
-        <v>42</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C44" s="2">
-        <v>10</v>
-      </c>
-      <c r="D44" s="2">
-        <v>0</v>
-      </c>
-      <c r="E44" s="2"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A45" s="2">
-        <v>43</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" s="2">
-        <v>3</v>
-      </c>
-      <c r="D45" s="2">
-        <v>1</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A46" s="2">
-        <v>44</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C46" s="2">
-        <v>10</v>
-      </c>
-      <c r="D46" s="2">
-        <v>0</v>
-      </c>
-      <c r="E46" s="2"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="2">
-        <v>45</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C47" s="2">
-        <v>3</v>
-      </c>
-      <c r="D47" s="2">
-        <v>0</v>
-      </c>
-      <c r="E47" s="2"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A48" s="2">
-        <v>46</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C48" s="2">
-        <v>10</v>
-      </c>
-      <c r="D48" s="2">
-        <v>0</v>
-      </c>
-      <c r="E48" s="2"/>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="1"/>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="1"/>
+      <c r="B16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:E33">
-    <sortCondition ref="A3:A33"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:E14">
+    <sortCondition ref="A3:A14"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
